--- a/biology/Zoologie/Eueides_lybia/Eueides_lybia.xlsx
+++ b/biology/Zoologie/Eueides_lybia/Eueides_lybia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eueides lybia est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Eueides.
 </t>
@@ -511,94 +523,100 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Eueides lybia a été décrit par l’entomologiste danois Johan Christian Fabricius en 1775 sous le nom initial de Papilio lybia [1] protonyme.
-Noms vernaculaires
-Eueides lybia se nomme Sharp-edged Longwing en anglais[2].
-Taxinomie
-Liste des sous-espèces[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides lybia a été décrit par l’entomologiste danois Johan Christian Fabricius en 1775 sous le nom initial de Papilio lybia  protonyme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eueides lybia se nomme Sharp-edged Longwing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces.
 Eueides lybia lybia au Surinam et en Guyane.
 Eueides lybia lybioides (Staudinger, 1876) ; au Costa Rica et à Panama.
 Synonymie pour cette sous-espèce
-Eueides lybioides (Staudinger, 1876)[4]
+Eueides lybioides (Staudinger, 1876)
 Eueides lybia olympia (Fabricius, 1793) ; au Nicaragua et en Colombie.
 Synonymie pour cette sous-espèce
-Papilio olympia (Fabricius, 1793)[5]
-Eueides leucomma (Bates, 1866)[6]
-Eueides olympia (Godman &amp; Salvin, 1881)[7]
+Papilio olympia (Fabricius, 1793)
+Eueides leucomma (Bates, 1866)
+Eueides olympia (Godman &amp; Salvin, 1881)
 Eueides lybia orinocensis Brown et Fernández, 1985 ; au Venezuela.
 Eueides lybia otelloi Brown et Fernández, 1985 ; au Venezuela.
 Eueides lybia salcedoi Brown et Fernández, 1985 ; au Venezuela</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Eueides_lybia</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon au dessus orange bordé de marron orné aux ailes antérieures d'une bande marron séparant l'apex orange bordé de marron et une bande marron. Les ailes postérieures sont uniquement bordées de marron.
-Le revers est semblable en plus clair.
-Chenille
-Elle est marron avec des rayures jaunes, des bandes blanches, des scolis noirs et une tête orange[8].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Eueides_lybia</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantes hôtes
-Ses plantes hôtes sont des Passifloraceae dont Passiflora vitifolia[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -620,12 +638,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon au dessus orange bordé de marron orné aux ailes antérieures d'une bande marron séparant l'apex orange bordé de marron et une bande marron. Les ailes postérieures sont uniquement bordées de marron.
+Le revers est semblable en plus clair.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est marron avec des rayures jaunes, des bandes blanches, des scolis noirs et une tête orange.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des Passifloraceae dont Passiflora vitifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Eueides_lybia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il réside au Nicaragua, au Costa Rica, à Panama, au Nicaragua, en Colombie, au Venezuela, au Surinam et en Guyane[3].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside au Nicaragua, au Costa Rica, à Panama, au Nicaragua, en Colombie, au Venezuela, au Surinam et en Guyane.
 Sur les autres projets Wikimedia :
 Eueides lybia, sur Wikimedia CommonsEueides lybia, sur Wikispecies
 </t>
